--- a/data/pca/factorExposure/factorExposure_2010-05-25.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-05-25.xlsx
@@ -723,19 +723,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01692207455678537</v>
+        <v>-0.01723049566648738</v>
       </c>
       <c r="C2">
-        <v>-0.004639278440538491</v>
+        <v>-0.0009905219729627413</v>
       </c>
       <c r="D2">
-        <v>-0.01968272199412356</v>
+        <v>0.009455602671256587</v>
       </c>
       <c r="E2">
-        <v>-0.01331272120879936</v>
+        <v>-0.0001263827135737259</v>
       </c>
       <c r="F2">
-        <v>-0.01962806917454237</v>
+        <v>-0.01284172717848608</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -763,19 +763,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0.121890467454222</v>
+        <v>-0.09467984396420881</v>
       </c>
       <c r="C4">
-        <v>-0.1011043870940419</v>
+        <v>-0.01744657281180878</v>
       </c>
       <c r="D4">
-        <v>0.01156582601868361</v>
+        <v>0.08182363397003513</v>
       </c>
       <c r="E4">
-        <v>0.03549545854182741</v>
+        <v>0.0289965727769782</v>
       </c>
       <c r="F4">
-        <v>-0.1569067053481229</v>
+        <v>0.03507286251095258</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -803,19 +803,19 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1327527671013138</v>
+        <v>-0.1523704291099763</v>
       </c>
       <c r="C6">
-        <v>-0.05804910952970328</v>
+        <v>-0.02460688350183086</v>
       </c>
       <c r="D6">
-        <v>0.002481879539322097</v>
+        <v>-0.02287676453762392</v>
       </c>
       <c r="E6">
-        <v>0.08397623226338488</v>
+        <v>0.009135378345222005</v>
       </c>
       <c r="F6">
-        <v>-0.04548279602091513</v>
+        <v>0.04127277632414454</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -823,19 +823,19 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0.06482578819620385</v>
+        <v>-0.06127832184122628</v>
       </c>
       <c r="C7">
-        <v>-0.06821251159473724</v>
+        <v>0.0001520746034506359</v>
       </c>
       <c r="D7">
-        <v>-0.008017583105003815</v>
+        <v>0.05183927066781208</v>
       </c>
       <c r="E7">
-        <v>-0.04055919772193316</v>
+        <v>0.01609834580125559</v>
       </c>
       <c r="F7">
-        <v>0.0005612556541001654</v>
+        <v>0.05486725466837109</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -843,19 +843,19 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>0.04307006463622888</v>
+        <v>-0.0590794303094669</v>
       </c>
       <c r="C8">
-        <v>-0.01507269226835958</v>
+        <v>0.01281834140311749</v>
       </c>
       <c r="D8">
-        <v>0.004242047947653686</v>
+        <v>0.02882639620715513</v>
       </c>
       <c r="E8">
-        <v>0.07166045150319277</v>
+        <v>0.0125437987763797</v>
       </c>
       <c r="F8">
-        <v>-0.1132141632883445</v>
+        <v>-0.02722972485807483</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -863,19 +863,19 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>0.0859434921693978</v>
+        <v>-0.07228643474259043</v>
       </c>
       <c r="C9">
-        <v>-0.07146401989804123</v>
+        <v>-0.01364818039919557</v>
       </c>
       <c r="D9">
-        <v>0.02583334336152734</v>
+        <v>0.08147532883857717</v>
       </c>
       <c r="E9">
-        <v>0.0285409963094256</v>
+        <v>0.02463549380056893</v>
       </c>
       <c r="F9">
-        <v>-0.1158156700912474</v>
+        <v>0.05685095159692832</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -883,19 +883,19 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>0.1362680758165026</v>
+        <v>-0.09330075153105605</v>
       </c>
       <c r="C10">
-        <v>0.1580581880077432</v>
+        <v>-0.0156758903300791</v>
       </c>
       <c r="D10">
-        <v>-0.01670259432179359</v>
+        <v>-0.1706504962057311</v>
       </c>
       <c r="E10">
-        <v>-0.01272018612741236</v>
+        <v>-0.03539591623284914</v>
       </c>
       <c r="F10">
-        <v>-0.004453178401525813</v>
+        <v>-0.05229879056141813</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -903,19 +903,19 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>0.07021537164576867</v>
+        <v>-0.08839194893921813</v>
       </c>
       <c r="C11">
-        <v>-0.0643757416996896</v>
+        <v>-0.01291074125745758</v>
       </c>
       <c r="D11">
-        <v>0.03725726415338353</v>
+        <v>0.1127557317436677</v>
       </c>
       <c r="E11">
-        <v>0.000947486213346465</v>
+        <v>0.04573067886248259</v>
       </c>
       <c r="F11">
-        <v>-0.06210999655221185</v>
+        <v>0.02453777734375046</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -923,19 +923,19 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>0.06863735382112544</v>
+        <v>-0.09350055644643662</v>
       </c>
       <c r="C12">
-        <v>-0.06495156173503126</v>
+        <v>-0.01086333599244636</v>
       </c>
       <c r="D12">
-        <v>0.04828509340665051</v>
+        <v>0.1198074081577536</v>
       </c>
       <c r="E12">
-        <v>0.02451591808756489</v>
+        <v>0.04460460795913609</v>
       </c>
       <c r="F12">
-        <v>-0.04521586899660967</v>
+        <v>0.02622947607412469</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -943,19 +943,19 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>0.03819788421292357</v>
+        <v>-0.04432361096885279</v>
       </c>
       <c r="C13">
-        <v>-0.04185207008669769</v>
+        <v>-0.004563267797064712</v>
       </c>
       <c r="D13">
-        <v>-0.01875918817991445</v>
+        <v>0.04537280758742879</v>
       </c>
       <c r="E13">
-        <v>-0.008069238459813903</v>
+        <v>-0.01249345741034845</v>
       </c>
       <c r="F13">
-        <v>-0.0205667965384116</v>
+        <v>0.01738327440866944</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -963,19 +963,19 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>0.02835389897003802</v>
+        <v>-0.02151060316182859</v>
       </c>
       <c r="C14">
-        <v>-0.01743247650829707</v>
+        <v>-0.01478178608849239</v>
       </c>
       <c r="D14">
-        <v>0.02441731787434571</v>
+        <v>0.0316971064573808</v>
       </c>
       <c r="E14">
-        <v>0.03086503174156694</v>
+        <v>0.01796522420643929</v>
       </c>
       <c r="F14">
-        <v>-0.03239823950852994</v>
+        <v>0.02040195350342249</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -983,19 +983,19 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>0.01768556007347679</v>
+        <v>-0.03223870379094136</v>
       </c>
       <c r="C15">
-        <v>-0.02303231479261739</v>
+        <v>-0.005656347661638931</v>
       </c>
       <c r="D15">
-        <v>-0.06662632528163097</v>
+        <v>0.04475288601090721</v>
       </c>
       <c r="E15">
-        <v>-0.009049746819323913</v>
+        <v>0.008710683058324151</v>
       </c>
       <c r="F15">
-        <v>-0.02533816301368393</v>
+        <v>0.03204441885159466</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1003,19 +1003,19 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>0.07460645900256506</v>
+        <v>-0.07512829994359915</v>
       </c>
       <c r="C16">
-        <v>-0.0706006355011975</v>
+        <v>-0.004527141317764104</v>
       </c>
       <c r="D16">
-        <v>0.04148480578257209</v>
+        <v>0.1150432591503172</v>
       </c>
       <c r="E16">
-        <v>0.01400654764843922</v>
+        <v>0.06084416550390861</v>
       </c>
       <c r="F16">
-        <v>-0.06086324053330864</v>
+        <v>0.03357825782541026</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1043,19 +1043,19 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.02124112690549447</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.003774208799651423</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.0215178946422645</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>-0.01155576223469182</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>-0.02410907446724094</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1083,19 +1083,19 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>0.04337649331478594</v>
+        <v>-0.06169721427287225</v>
       </c>
       <c r="C20">
-        <v>-0.02719744125527661</v>
+        <v>-0.002248574839524703</v>
       </c>
       <c r="D20">
-        <v>-0.02864448468473826</v>
+        <v>0.07151505141636949</v>
       </c>
       <c r="E20">
-        <v>0.02734378680304502</v>
+        <v>0.05346774153980693</v>
       </c>
       <c r="F20">
-        <v>-0.03084648462980341</v>
+        <v>0.02923447783747813</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1103,19 +1103,19 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>0.02278047238015998</v>
+        <v>-0.0388018080142393</v>
       </c>
       <c r="C21">
-        <v>-0.02209087745927842</v>
+        <v>-0.007733625852166822</v>
       </c>
       <c r="D21">
-        <v>0.01894502309201204</v>
+        <v>0.0353380023275577</v>
       </c>
       <c r="E21">
-        <v>0.01136062062056684</v>
+        <v>-0.008987742927972926</v>
       </c>
       <c r="F21">
-        <v>-0.02754234204974532</v>
+        <v>-0.01960859319812504</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1123,19 +1123,19 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>0.05911445679825764</v>
+        <v>-0.04297292661397391</v>
       </c>
       <c r="C22">
-        <v>-0.02120146686016805</v>
+        <v>-0.0003399296381483242</v>
       </c>
       <c r="D22">
-        <v>-0.6401091112284527</v>
+        <v>0.002007612039945002</v>
       </c>
       <c r="E22">
-        <v>0.04108419950636676</v>
+        <v>0.02992841614074766</v>
       </c>
       <c r="F22">
-        <v>0.1324896639806252</v>
+        <v>-0.01386901291385812</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1143,19 +1143,19 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>0.05970143130747407</v>
+        <v>-0.0430161647924192</v>
       </c>
       <c r="C23">
-        <v>-0.02283647111072359</v>
+        <v>-0.0003623588381557875</v>
       </c>
       <c r="D23">
-        <v>-0.642461760719134</v>
+        <v>0.002176100624573484</v>
       </c>
       <c r="E23">
-        <v>0.04342406150348069</v>
+        <v>0.03028357498239157</v>
       </c>
       <c r="F23">
-        <v>0.1286023028394069</v>
+        <v>-0.01329939796202568</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1163,19 +1163,19 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>0.0742528626348842</v>
+        <v>-0.08159635168451786</v>
       </c>
       <c r="C24">
-        <v>-0.068263879136332</v>
+        <v>-0.004735250749327475</v>
       </c>
       <c r="D24">
-        <v>0.03183421225908013</v>
+        <v>0.1158329690848336</v>
       </c>
       <c r="E24">
-        <v>-0.003144278114908382</v>
+        <v>0.04842000014279876</v>
       </c>
       <c r="F24">
-        <v>-0.06213510700483418</v>
+        <v>0.0256199720201068</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1183,19 +1183,19 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>0.07814876143406312</v>
+        <v>-0.08597186016694977</v>
       </c>
       <c r="C25">
-        <v>-0.06102037961959338</v>
+        <v>-0.006757090368115549</v>
       </c>
       <c r="D25">
-        <v>0.05238308373816825</v>
+        <v>0.1032808890254392</v>
       </c>
       <c r="E25">
-        <v>0.003765794760202597</v>
+        <v>0.03133292766463814</v>
       </c>
       <c r="F25">
-        <v>-0.06371073103955724</v>
+        <v>0.03377461512113837</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1203,19 +1203,19 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>0.03819484282563825</v>
+        <v>-0.05582430061121294</v>
       </c>
       <c r="C26">
-        <v>0.002980121434824276</v>
+        <v>-0.01559595275345755</v>
       </c>
       <c r="D26">
-        <v>-0.0124401558467499</v>
+        <v>0.03367348172423919</v>
       </c>
       <c r="E26">
-        <v>0.06391839986043946</v>
+        <v>0.02525809840986883</v>
       </c>
       <c r="F26">
-        <v>-0.004861187484294497</v>
+        <v>-0.006996300922280284</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1243,19 +1243,19 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>0.1590037050581884</v>
+        <v>-0.1394495573898116</v>
       </c>
       <c r="C28">
-        <v>0.2740517575280311</v>
+        <v>-0.0133792433242009</v>
       </c>
       <c r="D28">
-        <v>0.009267872010529487</v>
+        <v>-0.2706380167136906</v>
       </c>
       <c r="E28">
-        <v>0.02604005526807836</v>
+        <v>-0.06646089005015803</v>
       </c>
       <c r="F28">
-        <v>-0.009526759060862077</v>
+        <v>0.03484311496065866</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1263,19 +1263,19 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>0.03005711107951049</v>
+        <v>-0.02705418055555574</v>
       </c>
       <c r="C29">
-        <v>-0.02118314814406475</v>
+        <v>-0.009154753562434526</v>
       </c>
       <c r="D29">
-        <v>0.02458703362639904</v>
+        <v>0.03017972526762898</v>
       </c>
       <c r="E29">
-        <v>0.02943399424688618</v>
+        <v>0.01072547321457907</v>
       </c>
       <c r="F29">
-        <v>-0.02993334529657243</v>
+        <v>-0.01004966154995531</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1283,19 +1283,19 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>0.09402020752174729</v>
+        <v>-0.06453775274799957</v>
       </c>
       <c r="C30">
-        <v>-0.06034533012216153</v>
+        <v>-0.006457942222122919</v>
       </c>
       <c r="D30">
-        <v>0.02722739402463681</v>
+        <v>0.07958451303662918</v>
       </c>
       <c r="E30">
-        <v>0.2315797236566327</v>
+        <v>0.02269297036118697</v>
       </c>
       <c r="F30">
-        <v>0.02228227871553252</v>
+        <v>0.1161534827442941</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1303,19 +1303,19 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>0.03045383524529265</v>
+        <v>-0.04874729972877637</v>
       </c>
       <c r="C31">
-        <v>-0.0583365068236258</v>
+        <v>-0.01519432020917378</v>
       </c>
       <c r="D31">
-        <v>0.001370534634171951</v>
+        <v>0.02896444845524475</v>
       </c>
       <c r="E31">
-        <v>-0.006468941652670947</v>
+        <v>0.02726439964730203</v>
       </c>
       <c r="F31">
-        <v>-0.03618569731030918</v>
+        <v>-0.002467309827445633</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1323,19 +1323,19 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>0.05209820622797579</v>
+        <v>-0.04894953841821201</v>
       </c>
       <c r="C32">
-        <v>-0.02278019435979955</v>
+        <v>-0.0004657902327857292</v>
       </c>
       <c r="D32">
-        <v>0.05424220284525919</v>
+        <v>0.03015881100724148</v>
       </c>
       <c r="E32">
-        <v>0.04873690885028648</v>
+        <v>0.02936054550061179</v>
       </c>
       <c r="F32">
-        <v>-0.08717351170109343</v>
+        <v>0.0007199585816837752</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1343,19 +1343,19 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>0.08353712772584473</v>
+        <v>-0.09066452424477824</v>
       </c>
       <c r="C33">
-        <v>-0.05445951899198363</v>
+        <v>-0.009849852474539088</v>
       </c>
       <c r="D33">
-        <v>0.03551942121475405</v>
+        <v>0.09128614104713591</v>
       </c>
       <c r="E33">
-        <v>0.009182224357577509</v>
+        <v>0.04529660494211527</v>
       </c>
       <c r="F33">
-        <v>-0.005270982350142844</v>
+        <v>0.04031887592914848</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1363,19 +1363,19 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>0.0664500512237015</v>
+        <v>-0.06916818550470699</v>
       </c>
       <c r="C34">
-        <v>-0.0544926795018609</v>
+        <v>-0.01285528949930282</v>
       </c>
       <c r="D34">
-        <v>0.04067939739002376</v>
+        <v>0.09649332097318228</v>
       </c>
       <c r="E34">
-        <v>0.01385709186707366</v>
+        <v>0.03332140192653204</v>
       </c>
       <c r="F34">
-        <v>-0.06744739365453366</v>
+        <v>0.04813303391898025</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1383,19 +1383,19 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>0.01343185207630674</v>
+        <v>-0.02437745090603088</v>
       </c>
       <c r="C35">
-        <v>-0.008454870971948728</v>
+        <v>-0.002686854661056543</v>
       </c>
       <c r="D35">
-        <v>0.0003067752311093052</v>
+        <v>0.01027133599485951</v>
       </c>
       <c r="E35">
-        <v>0.01694422550068702</v>
+        <v>0.01105112368379206</v>
       </c>
       <c r="F35">
-        <v>-0.02668877352962004</v>
+        <v>0.01152467127412307</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1403,19 +1403,19 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>0.02242576873888797</v>
+        <v>-0.02516011225419604</v>
       </c>
       <c r="C36">
-        <v>-0.0106882197092213</v>
+        <v>-0.007260681213235185</v>
       </c>
       <c r="D36">
-        <v>-0.01069098130727744</v>
+        <v>0.03746201824730835</v>
       </c>
       <c r="E36">
-        <v>0.02900054149624406</v>
+        <v>0.01658837238290397</v>
       </c>
       <c r="F36">
-        <v>-0.03119675354428905</v>
+        <v>0.008003400581931238</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1443,19 +1443,19 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>0.0174814821686555</v>
+        <v>-0.002520592758664673</v>
       </c>
       <c r="C38">
-        <v>-0.03430624729665666</v>
+        <v>-0.0004379856285677046</v>
       </c>
       <c r="D38">
-        <v>-0.02405080616407266</v>
+        <v>0.002140882080899091</v>
       </c>
       <c r="E38">
-        <v>-0.007951466099194133</v>
+        <v>0.002926296190313613</v>
       </c>
       <c r="F38">
-        <v>0.1084691763109251</v>
+        <v>-0.002133790484294053</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1463,19 +1463,19 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>0.1059147230529297</v>
+        <v>-0.1104383516037083</v>
       </c>
       <c r="C39">
-        <v>-0.09512883047076291</v>
+        <v>-0.01842327994125768</v>
       </c>
       <c r="D39">
-        <v>0.1400014065653872</v>
+        <v>0.1484068392823896</v>
       </c>
       <c r="E39">
-        <v>0.0905049564792843</v>
+        <v>0.05629130464490137</v>
       </c>
       <c r="F39">
-        <v>-0.006485498280792279</v>
+        <v>0.03524957354718218</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1483,19 +1483,19 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>0.02525667606095299</v>
+        <v>-0.03760269027063395</v>
       </c>
       <c r="C40">
-        <v>-0.06646060067575901</v>
+        <v>-0.007611264859844324</v>
       </c>
       <c r="D40">
-        <v>-0.02736842150207938</v>
+        <v>0.03033867368233982</v>
       </c>
       <c r="E40">
-        <v>-0.03389998068287507</v>
+        <v>0.004274214172011538</v>
       </c>
       <c r="F40">
-        <v>-0.02839527598798984</v>
+        <v>-0.02023418405330858</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1503,19 +1503,19 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>0.03787909097005604</v>
+        <v>-0.02676811988244234</v>
       </c>
       <c r="C41">
-        <v>-0.02891308700505522</v>
+        <v>-0.006976006597741525</v>
       </c>
       <c r="D41">
-        <v>0.01866323768405921</v>
+        <v>0.01083012417042838</v>
       </c>
       <c r="E41">
-        <v>0.01809724274800527</v>
+        <v>0.01244587566370688</v>
       </c>
       <c r="F41">
-        <v>-0.002546898710683688</v>
+        <v>-0.01127592212719523</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1543,19 +1543,19 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>0.04528084072454843</v>
+        <v>-0.04243914198708678</v>
       </c>
       <c r="C43">
-        <v>-0.03685870846213107</v>
+        <v>-0.007192394058641825</v>
       </c>
       <c r="D43">
-        <v>-0.008520123017596254</v>
+        <v>0.02107107283538244</v>
       </c>
       <c r="E43">
-        <v>0.02777657071657664</v>
+        <v>0.0261918464532998</v>
       </c>
       <c r="F43">
-        <v>0.01044139575580524</v>
+        <v>-0.01206716940007744</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1563,19 +1563,19 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>0.1009169218067446</v>
+        <v>-0.0731470814709361</v>
       </c>
       <c r="C44">
-        <v>-0.1104244119923096</v>
+        <v>-0.02254813050967672</v>
       </c>
       <c r="D44">
-        <v>-0.08109043336587513</v>
+        <v>0.09881023765704397</v>
       </c>
       <c r="E44">
-        <v>0.002600037499773924</v>
+        <v>0.06742000235828519</v>
       </c>
       <c r="F44">
-        <v>-0.03978726435175446</v>
+        <v>0.1742034956532714</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1603,19 +1603,19 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>0.02626286196596265</v>
+        <v>-0.02313958197804538</v>
       </c>
       <c r="C46">
-        <v>-0.008783693717092294</v>
+        <v>-0.004112268493525955</v>
       </c>
       <c r="D46">
-        <v>-0.03371792004232003</v>
+        <v>0.01134238867525443</v>
       </c>
       <c r="E46">
-        <v>0.02239785376744569</v>
+        <v>0.02351558370509664</v>
       </c>
       <c r="F46">
-        <v>-0.01562954988061728</v>
+        <v>-0.001333410484375945</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1623,19 +1623,19 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>0.04518041773420171</v>
+        <v>-0.05293734080547815</v>
       </c>
       <c r="C47">
-        <v>-0.03649167447778644</v>
+        <v>-0.003444955614915913</v>
       </c>
       <c r="D47">
-        <v>0.0004094741644694943</v>
+        <v>0.01295123850016521</v>
       </c>
       <c r="E47">
-        <v>0.0009427277276314802</v>
+        <v>0.02227038365208338</v>
       </c>
       <c r="F47">
-        <v>-0.006037046689966341</v>
+        <v>-0.04669860898395154</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1643,19 +1643,19 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>0.04287020944056495</v>
+        <v>-0.04782393249239758</v>
       </c>
       <c r="C48">
-        <v>-0.01267779533381718</v>
+        <v>-0.003297849588857483</v>
       </c>
       <c r="D48">
-        <v>0.0133256685493369</v>
+        <v>0.04564495032381635</v>
       </c>
       <c r="E48">
-        <v>0.005902596943025329</v>
+        <v>-0.006350295433847528</v>
       </c>
       <c r="F48">
-        <v>-0.05793240878238914</v>
+        <v>0.01392648751361758</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1663,19 +1663,19 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>0.222954726247286</v>
+        <v>-0.2032537239814044</v>
       </c>
       <c r="C49">
-        <v>-0.02887819312068711</v>
+        <v>-0.01711716673781491</v>
       </c>
       <c r="D49">
-        <v>0.03032405443354041</v>
+        <v>-0.009190597640035138</v>
       </c>
       <c r="E49">
-        <v>-0.1762235212849064</v>
+        <v>0.03816521357299028</v>
       </c>
       <c r="F49">
-        <v>0.1872998220843336</v>
+        <v>0.03358547145630711</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1683,19 +1683,19 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>0.03886805333465346</v>
+        <v>-0.04863433234935365</v>
       </c>
       <c r="C50">
-        <v>-0.03325874189788137</v>
+        <v>-0.01123166835612007</v>
       </c>
       <c r="D50">
-        <v>0.01838832514377051</v>
+        <v>0.0258367100912369</v>
       </c>
       <c r="E50">
-        <v>0.03720945258677355</v>
+        <v>0.02872378496297292</v>
       </c>
       <c r="F50">
-        <v>-0.01575283802064929</v>
+        <v>0.007728084417247879</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1703,19 +1703,19 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>0.0255827520968784</v>
+        <v>-0.003399192814826558</v>
       </c>
       <c r="C51">
-        <v>0.004150215173962158</v>
+        <v>-0.0008187588820354279</v>
       </c>
       <c r="D51">
-        <v>-0.003305619064408975</v>
+        <v>-0.001957585670671245</v>
       </c>
       <c r="E51">
-        <v>-0.0385864601892799</v>
+        <v>0.00107360805378767</v>
       </c>
       <c r="F51">
-        <v>0.002466902097750559</v>
+        <v>0.005046683331637647</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1723,19 +1723,19 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>0.0686252930258603</v>
+        <v>-0.1438572038673397</v>
       </c>
       <c r="C52">
-        <v>-0.06374959685539892</v>
+        <v>-0.01311577382105184</v>
       </c>
       <c r="D52">
-        <v>0.02383766978262893</v>
+        <v>0.05048211352283027</v>
       </c>
       <c r="E52">
-        <v>0.04950381256259116</v>
+        <v>0.0197053959621003</v>
       </c>
       <c r="F52">
-        <v>0.02303961462164927</v>
+        <v>0.03606732837943864</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1743,19 +1743,19 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1576300171302569</v>
+        <v>-0.1732637257000643</v>
       </c>
       <c r="C53">
-        <v>-0.07586852577932525</v>
+        <v>-0.01591081890317869</v>
       </c>
       <c r="D53">
-        <v>-0.01414817872956966</v>
+        <v>0.01465845016298188</v>
       </c>
       <c r="E53">
-        <v>0.0351850403933468</v>
+        <v>0.03636874764923624</v>
       </c>
       <c r="F53">
-        <v>0.07876789936116865</v>
+        <v>0.06823122191189851</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1763,19 +1763,19 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>0.05674179942053805</v>
+        <v>-0.0227575861506118</v>
       </c>
       <c r="C54">
-        <v>-0.05908399670517923</v>
+        <v>-0.01275305879743215</v>
       </c>
       <c r="D54">
-        <v>0.001284839745035853</v>
+        <v>0.03215444454241426</v>
       </c>
       <c r="E54">
-        <v>0.04077848496559441</v>
+        <v>0.0142021053110683</v>
       </c>
       <c r="F54">
-        <v>-0.1149547110194689</v>
+        <v>-0.003079523599424209</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1783,19 +1783,19 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>0.08072261768914299</v>
+        <v>-0.1142382379510015</v>
       </c>
       <c r="C55">
-        <v>-0.05507499612729911</v>
+        <v>-0.01462038336654267</v>
       </c>
       <c r="D55">
-        <v>0.03381364803916296</v>
+        <v>0.01349086421874265</v>
       </c>
       <c r="E55">
-        <v>-0.01222015976536827</v>
+        <v>0.03049840624255602</v>
       </c>
       <c r="F55">
-        <v>0.02345134819054541</v>
+        <v>0.05024859830191446</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1803,19 +1803,19 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1427772194272891</v>
+        <v>-0.177315951701477</v>
       </c>
       <c r="C56">
-        <v>-0.08975246343654518</v>
+        <v>-0.0133768382073465</v>
       </c>
       <c r="D56">
-        <v>0.02621852999038797</v>
+        <v>0.008495354233389514</v>
       </c>
       <c r="E56">
-        <v>-0.02782043561504086</v>
+        <v>0.03996302509634906</v>
       </c>
       <c r="F56">
-        <v>0.0754197336216489</v>
+        <v>0.04010852417998968</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1843,19 +1843,19 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>0.05221179330439189</v>
+        <v>-0.04720151816056271</v>
       </c>
       <c r="C58">
-        <v>-0.04119194882270299</v>
+        <v>-0.003073503173469506</v>
       </c>
       <c r="D58">
-        <v>-0.04080381856712649</v>
+        <v>0.063797749188584</v>
       </c>
       <c r="E58">
-        <v>0.01032597904153857</v>
+        <v>0.02141759998246118</v>
       </c>
       <c r="F58">
-        <v>0.01782456060718237</v>
+        <v>-0.04990803330523431</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1863,19 +1863,19 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>0.2197843519390409</v>
+        <v>-0.1706669217288133</v>
       </c>
       <c r="C59">
-        <v>0.2275315080401897</v>
+        <v>-0.01506414413228858</v>
       </c>
       <c r="D59">
-        <v>0.04507967848324432</v>
+        <v>-0.2292107024834454</v>
       </c>
       <c r="E59">
-        <v>-0.0352230049873508</v>
+        <v>-0.04782571314641804</v>
       </c>
       <c r="F59">
-        <v>-0.06817147849794625</v>
+        <v>-0.03396053071542195</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1883,19 +1883,19 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2276838048119572</v>
+        <v>-0.2378019557333186</v>
       </c>
       <c r="C60">
-        <v>-0.1376281288503754</v>
+        <v>0.00427777113661111</v>
       </c>
       <c r="D60">
-        <v>0.06970142851795004</v>
+        <v>0.04991949822285714</v>
       </c>
       <c r="E60">
-        <v>-0.08095716786941809</v>
+        <v>0.008166619074293805</v>
       </c>
       <c r="F60">
-        <v>0.103070302182715</v>
+        <v>-0.03696814119733924</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1903,19 +1903,19 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>0.1095610973492207</v>
+        <v>-0.08530553947055734</v>
       </c>
       <c r="C61">
-        <v>-0.07078224328370765</v>
+        <v>-0.01445616042861326</v>
       </c>
       <c r="D61">
-        <v>0.08314780884451958</v>
+        <v>0.1091919578610012</v>
       </c>
       <c r="E61">
-        <v>0.05869992848001135</v>
+        <v>0.03853942306184274</v>
       </c>
       <c r="F61">
-        <v>-0.03884832507760936</v>
+        <v>0.01962463809335011</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1923,19 +1923,19 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1375998379048235</v>
+        <v>-0.1695762106825992</v>
       </c>
       <c r="C62">
-        <v>-0.07444613716485951</v>
+        <v>-0.01727927322607827</v>
       </c>
       <c r="D62">
-        <v>-0.002380330456542295</v>
+        <v>0.01260958237029926</v>
       </c>
       <c r="E62">
-        <v>-0.02676377210012231</v>
+        <v>0.03699740792730374</v>
       </c>
       <c r="F62">
-        <v>0.09240079277052592</v>
+        <v>0.02038490756002839</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1943,19 +1943,19 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>0.04612022465858703</v>
+        <v>-0.04273094441182226</v>
       </c>
       <c r="C63">
-        <v>-0.02485914796804441</v>
+        <v>-0.00399950558735546</v>
       </c>
       <c r="D63">
-        <v>0.00994566214904153</v>
+        <v>0.04844221196160041</v>
       </c>
       <c r="E63">
-        <v>0.04476249150477302</v>
+        <v>0.01930153905579703</v>
       </c>
       <c r="F63">
-        <v>-0.04540726199291236</v>
+        <v>0.009923129375982647</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1963,19 +1963,19 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>0.09454036502002594</v>
+        <v>-0.1122250012235113</v>
       </c>
       <c r="C64">
-        <v>-0.05687587022444423</v>
+        <v>-0.01189180085029315</v>
       </c>
       <c r="D64">
-        <v>0.005129889983847187</v>
+        <v>0.04103687259790229</v>
       </c>
       <c r="E64">
-        <v>0.025281933104096</v>
+        <v>0.02006153124910581</v>
       </c>
       <c r="F64">
-        <v>0.01018081774488793</v>
+        <v>0.01845065869279254</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1983,19 +1983,19 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1187846898864932</v>
+        <v>-0.1437428860657722</v>
       </c>
       <c r="C65">
-        <v>-0.04653341830252963</v>
+        <v>-0.03120769495576836</v>
       </c>
       <c r="D65">
-        <v>0.02159365625512821</v>
+        <v>-0.04495599272580725</v>
       </c>
       <c r="E65">
-        <v>0.1093853503619798</v>
+        <v>0.0005037875276304045</v>
       </c>
       <c r="F65">
-        <v>-0.01339659479859748</v>
+        <v>0.0440529496116211</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2003,19 +2003,19 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1195518151257046</v>
+        <v>-0.1320577366406155</v>
       </c>
       <c r="C66">
-        <v>-0.1172645664446794</v>
+        <v>-0.01592839201907579</v>
       </c>
       <c r="D66">
-        <v>0.1293190323366147</v>
+        <v>0.1359681312177354</v>
       </c>
       <c r="E66">
-        <v>0.09504203854006321</v>
+        <v>0.06321713130625002</v>
       </c>
       <c r="F66">
-        <v>0.0372491577045579</v>
+        <v>0.04030109021244502</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2023,19 +2023,19 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>0.06708558446477711</v>
+        <v>-0.06400807266454596</v>
       </c>
       <c r="C67">
-        <v>-0.03447934387821085</v>
+        <v>-0.003837135008091672</v>
       </c>
       <c r="D67">
-        <v>-0.03409509491708987</v>
+        <v>0.05500356536559595</v>
       </c>
       <c r="E67">
-        <v>-0.005766311112295124</v>
+        <v>0.02032906870347259</v>
       </c>
       <c r="F67">
-        <v>0.09752529780862391</v>
+        <v>-0.04241033531767361</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2043,19 +2043,19 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>0.1365670871653987</v>
+        <v>-0.1138281590282031</v>
       </c>
       <c r="C68">
-        <v>0.2491802075835015</v>
+        <v>-0.02445804160751879</v>
       </c>
       <c r="D68">
-        <v>0.02206190521855795</v>
+        <v>-0.2676354974278347</v>
       </c>
       <c r="E68">
-        <v>0.04121764097108935</v>
+        <v>-0.08482788432952003</v>
       </c>
       <c r="F68">
-        <v>-0.02898746254585609</v>
+        <v>0.04201195848767642</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2063,19 +2063,19 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>0.04497206148653532</v>
+        <v>-0.04033430908840738</v>
       </c>
       <c r="C69">
-        <v>-0.00318182997019248</v>
+        <v>-0.001227544936968531</v>
       </c>
       <c r="D69">
-        <v>-0.001280033460804229</v>
+        <v>0.009597933101679952</v>
       </c>
       <c r="E69">
-        <v>0.04585668749290962</v>
+        <v>0.02476302431153428</v>
       </c>
       <c r="F69">
-        <v>0.01021256763052502</v>
+        <v>-0.01478168183708797</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2083,19 +2083,19 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>0.04665624597929767</v>
+        <v>-0.06472455487628961</v>
       </c>
       <c r="C70">
-        <v>-0.02372203398573195</v>
+        <v>0.02746349897457725</v>
       </c>
       <c r="D70">
-        <v>0.03392217938473212</v>
+        <v>0.02579846018944058</v>
       </c>
       <c r="E70">
-        <v>0.07144305838888487</v>
+        <v>-0.04743599675242276</v>
       </c>
       <c r="F70">
-        <v>-0.02764552090376137</v>
+        <v>-0.3121273738728039</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2103,19 +2103,19 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>0.1544943067363181</v>
+        <v>-0.1325384633587752</v>
       </c>
       <c r="C71">
-        <v>0.2740614754667724</v>
+        <v>-0.02858092378759569</v>
       </c>
       <c r="D71">
-        <v>0.01815347545947053</v>
+        <v>-0.283721463314944</v>
       </c>
       <c r="E71">
-        <v>0.05671534979341755</v>
+        <v>-0.09270108959016721</v>
       </c>
       <c r="F71">
-        <v>0.002234313190434212</v>
+        <v>0.04450049590637087</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2123,19 +2123,19 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1381810041098498</v>
+        <v>-0.1382334054918189</v>
       </c>
       <c r="C72">
-        <v>-0.02936768840202586</v>
+        <v>-0.02428885145571025</v>
       </c>
       <c r="D72">
-        <v>0.002615056313400664</v>
+        <v>0.004456693204513586</v>
       </c>
       <c r="E72">
-        <v>0.03418848809187588</v>
+        <v>0.04258295397550459</v>
       </c>
       <c r="F72">
-        <v>0.03254068956709706</v>
+        <v>0.02350762005654236</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2143,19 +2143,19 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>0.2171594461010584</v>
+        <v>-0.2062704077580917</v>
       </c>
       <c r="C73">
-        <v>-0.08426897873866025</v>
+        <v>-0.01154246215108903</v>
       </c>
       <c r="D73">
-        <v>0.1170079205058184</v>
+        <v>0.01813046718352436</v>
       </c>
       <c r="E73">
-        <v>-0.2515738905405205</v>
+        <v>0.06611900107124095</v>
       </c>
       <c r="F73">
-        <v>0.3991322628774864</v>
+        <v>0.02919493913657488</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2163,19 +2163,19 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>0.1038399382650459</v>
+        <v>-0.09400878590260586</v>
       </c>
       <c r="C74">
-        <v>-0.09715480746114889</v>
+        <v>-0.01194188407772382</v>
       </c>
       <c r="D74">
-        <v>0.008561161870815494</v>
+        <v>0.02405682855981803</v>
       </c>
       <c r="E74">
-        <v>0.03163410532495237</v>
+        <v>0.04917682143715928</v>
       </c>
       <c r="F74">
-        <v>0.1007855849500052</v>
+        <v>0.04309941543491389</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2183,19 +2183,19 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>0.09904478692962816</v>
+        <v>-0.1299991396197903</v>
       </c>
       <c r="C75">
-        <v>-0.07405639260530955</v>
+        <v>-0.02626494860845892</v>
       </c>
       <c r="D75">
-        <v>0.003676984843465241</v>
+        <v>0.03447222239669295</v>
       </c>
       <c r="E75">
-        <v>-0.02119583589686992</v>
+        <v>0.05969873489993958</v>
       </c>
       <c r="F75">
-        <v>0.002212719563281588</v>
+        <v>0.01322908524443468</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2203,19 +2203,19 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>0.04168526266018405</v>
+        <v>-0.005681546938052281</v>
       </c>
       <c r="C76">
-        <v>-0.02917618379602998</v>
+        <v>-0.001268476869771758</v>
       </c>
       <c r="D76">
-        <v>0.003566547758318171</v>
+        <v>0.0004766727650814531</v>
       </c>
       <c r="E76">
-        <v>-0.032894037804552</v>
+        <v>0.004618208113734946</v>
       </c>
       <c r="F76">
-        <v>0.01659102187145612</v>
+        <v>0.003913263311621849</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2223,19 +2223,19 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>0.06627274298846728</v>
+        <v>-0.07962736811092172</v>
       </c>
       <c r="C77">
-        <v>-0.03168421275157599</v>
+        <v>-0.01049145255307353</v>
       </c>
       <c r="D77">
-        <v>0.04078131141991979</v>
+        <v>0.1088910851061892</v>
       </c>
       <c r="E77">
-        <v>0.002240467451447268</v>
+        <v>0.03574661928259708</v>
       </c>
       <c r="F77">
-        <v>-0.07849324748348749</v>
+        <v>0.03057911410393734</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2243,19 +2243,19 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>0.1342113562227619</v>
+        <v>-0.1077080534402179</v>
       </c>
       <c r="C78">
-        <v>-0.1078666695313429</v>
+        <v>-0.04225174345347898</v>
       </c>
       <c r="D78">
-        <v>-0.1826796655607022</v>
+        <v>0.1170528878919274</v>
       </c>
       <c r="E78">
-        <v>-0.3913562361560898</v>
+        <v>0.08683464221741073</v>
       </c>
       <c r="F78">
-        <v>-0.7004049885257422</v>
+        <v>0.07185993916133072</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2263,19 +2263,19 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1337306839263078</v>
+        <v>-0.1638541862331521</v>
       </c>
       <c r="C79">
-        <v>-0.08703265508194978</v>
+        <v>-0.02027209890323646</v>
       </c>
       <c r="D79">
-        <v>-0.006911909219408001</v>
+        <v>0.02032382976636745</v>
       </c>
       <c r="E79">
-        <v>-0.008748549562033499</v>
+        <v>0.04727276733659803</v>
       </c>
       <c r="F79">
-        <v>0.05545890826748705</v>
+        <v>0.01169386141469781</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2283,19 +2283,19 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>0.07250880290143483</v>
+        <v>-0.0804940345897405</v>
       </c>
       <c r="C80">
-        <v>-0.06077375059458512</v>
+        <v>0.0005157934902476196</v>
       </c>
       <c r="D80">
-        <v>0.08311692533655791</v>
+        <v>0.05670979478846236</v>
       </c>
       <c r="E80">
-        <v>0.0552730000124909</v>
+        <v>0.03318298665881952</v>
       </c>
       <c r="F80">
-        <v>-0.0328740388838019</v>
+        <v>-0.01695082967632902</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2303,19 +2303,19 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1315675781451558</v>
+        <v>-0.123334770403134</v>
       </c>
       <c r="C81">
-        <v>-0.08825580574500938</v>
+        <v>-0.03024778538288347</v>
       </c>
       <c r="D81">
-        <v>-0.008206412716661164</v>
+        <v>0.01978319517758721</v>
       </c>
       <c r="E81">
-        <v>0.01797238791702618</v>
+        <v>0.05922226704497085</v>
       </c>
       <c r="F81">
-        <v>-0.0206030293276587</v>
+        <v>0.002833299775863574</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2323,19 +2323,19 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1345945832765779</v>
+        <v>-0.1629895501301302</v>
       </c>
       <c r="C82">
-        <v>-0.07332229257784879</v>
+        <v>-0.02074073879662207</v>
       </c>
       <c r="D82">
-        <v>0.01157856825257218</v>
+        <v>0.01724911387829816</v>
       </c>
       <c r="E82">
-        <v>0.05362050370234614</v>
+        <v>0.03404419173885764</v>
       </c>
       <c r="F82">
-        <v>0.05460692914456448</v>
+        <v>0.06150883576554909</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2343,19 +2343,19 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>0.09030287217804134</v>
+        <v>-0.06534520594322765</v>
       </c>
       <c r="C83">
-        <v>-0.1427463273159413</v>
+        <v>-0.003895515975053756</v>
       </c>
       <c r="D83">
-        <v>0.02966290592285981</v>
+        <v>0.04915797153422914</v>
       </c>
       <c r="E83">
-        <v>0.03185589018407179</v>
+        <v>0.005970229205097252</v>
       </c>
       <c r="F83">
-        <v>0.04454408598234014</v>
+        <v>-0.042267193354471</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2363,19 +2363,19 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>0.06173422300489764</v>
+        <v>-0.05954308850273844</v>
       </c>
       <c r="C84">
-        <v>0.08507866135959498</v>
+        <v>-0.01145332944119362</v>
       </c>
       <c r="D84">
-        <v>0.03468462320286415</v>
+        <v>0.06052325966543141</v>
       </c>
       <c r="E84">
-        <v>-0.1072440136897505</v>
+        <v>-0.001505629983238212</v>
       </c>
       <c r="F84">
-        <v>-0.1055571743654257</v>
+        <v>0.01235437009695536</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2383,19 +2383,19 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1184994263389275</v>
+        <v>-0.138290460553547</v>
       </c>
       <c r="C85">
-        <v>-0.05952604861271583</v>
+        <v>-0.02566566487320521</v>
       </c>
       <c r="D85">
-        <v>0.006382621076805743</v>
+        <v>0.01555341016493016</v>
       </c>
       <c r="E85">
-        <v>-0.02499091049234683</v>
+        <v>0.04031927394963352</v>
       </c>
       <c r="F85">
-        <v>0.08169005996582737</v>
+        <v>0.04639467390258499</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2403,19 +2403,19 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>0.09380751927724654</v>
+        <v>-0.09837188716076117</v>
       </c>
       <c r="C86">
-        <v>-0.04420746690264968</v>
+        <v>0.006726082147839759</v>
       </c>
       <c r="D86">
-        <v>-0.02522181703451912</v>
+        <v>0.0219649908014893</v>
       </c>
       <c r="E86">
-        <v>-0.349222286286921</v>
+        <v>0.1369873295793646</v>
       </c>
       <c r="F86">
-        <v>-0.02713705461043969</v>
+        <v>-0.8471017663381518</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2423,19 +2423,19 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>0.1234562224892032</v>
+        <v>-0.09951705341920708</v>
       </c>
       <c r="C87">
-        <v>-0.1403106383143401</v>
+        <v>-0.02533082321963846</v>
       </c>
       <c r="D87">
-        <v>-0.009478078036958658</v>
+        <v>0.07542184773500966</v>
       </c>
       <c r="E87">
-        <v>0.02822415298395107</v>
+        <v>-0.0516198943550023</v>
       </c>
       <c r="F87">
-        <v>-0.0628374065910286</v>
+        <v>0.08308059666405414</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2443,19 +2443,19 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>0.05661233997143682</v>
+        <v>-0.06237235287977404</v>
       </c>
       <c r="C88">
-        <v>-0.05842037149645008</v>
+        <v>-0.003327482503380833</v>
       </c>
       <c r="D88">
-        <v>0.04106497691096126</v>
+        <v>0.05326817830189823</v>
       </c>
       <c r="E88">
-        <v>0.03594346802910742</v>
+        <v>0.02690585817508168</v>
       </c>
       <c r="F88">
-        <v>0.01897808762085185</v>
+        <v>0.009277099701084831</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2463,19 +2463,19 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>0.224553034555995</v>
+        <v>-0.1337907193817727</v>
       </c>
       <c r="C89">
-        <v>0.3647819113238173</v>
+        <v>-0.00698329343931097</v>
       </c>
       <c r="D89">
-        <v>-0.05095668290144228</v>
+        <v>-0.2644728269764185</v>
       </c>
       <c r="E89">
-        <v>-0.01386655573806329</v>
+        <v>-0.09039179747521724</v>
       </c>
       <c r="F89">
-        <v>-0.02763098631356918</v>
+        <v>0.02707132223561592</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2483,19 +2483,19 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>0.167245406618957</v>
+        <v>-0.1443725832809449</v>
       </c>
       <c r="C90">
-        <v>0.2570335741424232</v>
+        <v>-0.02418432475278789</v>
       </c>
       <c r="D90">
-        <v>0.0128013178588307</v>
+        <v>-0.2715919817161888</v>
       </c>
       <c r="E90">
-        <v>0.0159584358215967</v>
+        <v>-0.1054750114295223</v>
       </c>
       <c r="F90">
-        <v>0.03367740649562162</v>
+        <v>0.0272100549601046</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2503,19 +2503,19 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>0.08100158561036375</v>
+        <v>-0.1179936600438221</v>
       </c>
       <c r="C91">
-        <v>-0.07380403334229189</v>
+        <v>-0.01652515735439499</v>
       </c>
       <c r="D91">
-        <v>0.006971100753536803</v>
+        <v>-0.004218049196597205</v>
       </c>
       <c r="E91">
-        <v>0.003754941438347872</v>
+        <v>0.05764452850190322</v>
       </c>
       <c r="F91">
-        <v>0.002623076085412985</v>
+        <v>-0.02238545587351809</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2523,19 +2523,19 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1871360373812362</v>
+        <v>-0.1477018821770143</v>
       </c>
       <c r="C92">
-        <v>0.3047624650990551</v>
+        <v>-0.01600837556498726</v>
       </c>
       <c r="D92">
-        <v>-0.02231856678340436</v>
+        <v>-0.303371150793785</v>
       </c>
       <c r="E92">
-        <v>0.009789066976236114</v>
+        <v>-0.1010099118853649</v>
       </c>
       <c r="F92">
-        <v>-0.05728660121884475</v>
+        <v>0.02273496382768609</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2543,19 +2543,19 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1726138090036478</v>
+        <v>-0.148116274211842</v>
       </c>
       <c r="C93">
-        <v>0.3082706957731485</v>
+        <v>-0.02054650008524906</v>
       </c>
       <c r="D93">
-        <v>0.04697995560580816</v>
+        <v>-0.2735826245076284</v>
       </c>
       <c r="E93">
-        <v>0.04250849678987324</v>
+        <v>-0.07208073430011887</v>
       </c>
       <c r="F93">
-        <v>-0.007428032217247294</v>
+        <v>0.02028483042327551</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2563,19 +2563,19 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1233030421664179</v>
+        <v>-0.1333879466562453</v>
       </c>
       <c r="C94">
-        <v>-0.07987409819721646</v>
+        <v>-0.02364769271468574</v>
       </c>
       <c r="D94">
-        <v>-0.01142509415362282</v>
+        <v>0.0474934514735231</v>
       </c>
       <c r="E94">
-        <v>-0.0264696665657796</v>
+        <v>0.0607193944183962</v>
       </c>
       <c r="F94">
-        <v>0.03969000613331562</v>
+        <v>0.03162443951913484</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2583,19 +2583,19 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>0.117531016591872</v>
+        <v>-0.1262559195349855</v>
       </c>
       <c r="C95">
-        <v>-0.06283243953621476</v>
+        <v>-0.005681728434094551</v>
       </c>
       <c r="D95">
-        <v>-0.02147767750970919</v>
+        <v>0.09018257587517493</v>
       </c>
       <c r="E95">
-        <v>-0.09845063735938328</v>
+        <v>0.04458765477516459</v>
       </c>
       <c r="F95">
-        <v>-0.05741944005415322</v>
+        <v>-0.0146286347444302</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2603,19 +2603,19 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.003021252456980848</v>
+        <v>-0.09731082492604784</v>
       </c>
       <c r="C96">
-        <v>-0.00756899338463414</v>
+        <v>0.9890914532018324</v>
       </c>
       <c r="D96">
-        <v>0.000987303900430785</v>
+        <v>-0.0240710976133146</v>
       </c>
       <c r="E96">
-        <v>-0.009049233568659753</v>
+        <v>0.05916030749783427</v>
       </c>
       <c r="F96">
-        <v>-0.01298276307359537</v>
+        <v>0.04845172116133355</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2623,19 +2623,19 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>0.134271455412112</v>
+        <v>-0.1872841803964618</v>
       </c>
       <c r="C97">
-        <v>-0.08607882631053464</v>
+        <v>0.01170180640822794</v>
       </c>
       <c r="D97">
-        <v>-0.08646539360911072</v>
+        <v>-0.01003234824972245</v>
       </c>
       <c r="E97">
-        <v>0.6415834147940249</v>
+        <v>0.01502917631203555</v>
       </c>
       <c r="F97">
-        <v>-0.1955642218913717</v>
+        <v>-0.1782625476697215</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2643,19 +2643,19 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>0.2313257970172933</v>
+        <v>-0.2055855414716148</v>
       </c>
       <c r="C98">
-        <v>-0.09040598598202387</v>
+        <v>-0.006920491721056886</v>
       </c>
       <c r="D98">
-        <v>-0.09338658121632179</v>
+        <v>0.01566234978748256</v>
       </c>
       <c r="E98">
-        <v>-0.08290434559745788</v>
+        <v>-0.09112083760329565</v>
       </c>
       <c r="F98">
-        <v>0.06425216056423172</v>
+        <v>-0.1298235620686929</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2663,19 +2663,19 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>0.06063542883625247</v>
+        <v>-0.05753099852882783</v>
       </c>
       <c r="C99">
-        <v>-0.02501141570572749</v>
+        <v>0.003377373443672958</v>
       </c>
       <c r="D99">
-        <v>-0.005816374599961982</v>
+        <v>0.03482667011358377</v>
       </c>
       <c r="E99">
-        <v>-0.04790587797694455</v>
+        <v>0.02636424455766986</v>
       </c>
       <c r="F99">
-        <v>0.03207636196660234</v>
+        <v>0.004477844563218509</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2683,19 +2683,19 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>0.0009769623996851828</v>
+        <v>-0.1241106150489586</v>
       </c>
       <c r="C100">
-        <v>0.02051976467136361</v>
+        <v>0.04917418009103931</v>
       </c>
       <c r="D100">
-        <v>0.009466324144892175</v>
+        <v>0.3334025274310788</v>
       </c>
       <c r="E100">
-        <v>0.130934447621757</v>
+        <v>-0.9023045422229727</v>
       </c>
       <c r="F100">
-        <v>-0.008024584505204295</v>
+        <v>-0.05807022893817984</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2703,19 +2703,19 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>0.0297167938581032</v>
+        <v>-0.02699092033537736</v>
       </c>
       <c r="C101">
-        <v>-0.02182250348752442</v>
+        <v>-0.009157604386090498</v>
       </c>
       <c r="D101">
-        <v>0.02526824989501351</v>
+        <v>0.02992724860857423</v>
       </c>
       <c r="E101">
-        <v>0.02722372476462793</v>
+        <v>0.01028002314303476</v>
       </c>
       <c r="F101">
-        <v>-0.02828310640461342</v>
+        <v>-0.01216964332949307</v>
       </c>
     </row>
     <row r="102" spans="1:6">
